--- a/File1.xlsx
+++ b/File1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9913A2E-DA07-40B1-B8FF-D9F052B5EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1322D521-5DA6-45B8-ABD7-7118D418F161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Averis</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Averis Sdn</t>
   </si>
   <si>
-    <t>Averis &amp; H</t>
-  </si>
-  <si>
     <t>7/24/2024 2:54</t>
   </si>
   <si>
@@ -45,91 +42,115 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Penetratio</t>
-  </si>
-  <si>
     <t>PJR202421</t>
   </si>
   <si>
+    <t>8/27/2024 7:45</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>PR No</t>
+  </si>
+  <si>
+    <t>SOW No</t>
+  </si>
+  <si>
+    <t>Requestor</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Working Group</t>
+  </si>
+  <si>
+    <t>Budgeted</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Budget Amount</t>
+  </si>
+  <si>
+    <t>Scoping Lead Time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>AHP</t>
+  </si>
+  <si>
+    <t>PJR202418</t>
+  </si>
+  <si>
+    <t>Forindo Sdn BHd</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>SOW123456</t>
+  </si>
+  <si>
+    <t>SOWVAV123</t>
+  </si>
+  <si>
+    <t>Rasika</t>
+  </si>
+  <si>
+    <t>Trip to Japan</t>
+  </si>
+  <si>
+    <t>BSC Prod H</t>
+  </si>
+  <si>
+    <t>PJR20243G</t>
+  </si>
+  <si>
     <t>SOWVAV2</t>
   </si>
   <si>
-    <t>8/27/2024 7:45</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>PR No</t>
-  </si>
-  <si>
-    <t>SOW No</t>
-  </si>
-  <si>
-    <t>Requestor</t>
-  </si>
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>Working Group</t>
-  </si>
-  <si>
-    <t>Budgeted</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Budget Amount</t>
-  </si>
-  <si>
-    <t>Scoping Lead Time</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>PJR20241814</t>
-  </si>
-  <si>
-    <t>Eggwae</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
-    <t>AHP</t>
-  </si>
-  <si>
-    <t>PJR202418</t>
-  </si>
-  <si>
-    <t>Grace Wong Li Yun</t>
-  </si>
-  <si>
-    <t>Forindo Sdn BHd</t>
-  </si>
-  <si>
-    <t>ioawhgoi3h</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>SOW12345</t>
+    <t>Allan Teoh Joo Chwan</t>
+  </si>
+  <si>
+    <t>2/15/2024 8:17</t>
+  </si>
+  <si>
+    <t>Projects-IT Infra</t>
+  </si>
+  <si>
+    <t>VMWare V</t>
+  </si>
+  <si>
+    <t>PJR202413</t>
+  </si>
+  <si>
+    <t>Iswani Mustafa</t>
+  </si>
+  <si>
+    <t>5/31/2024 3:44</t>
+  </si>
+  <si>
+    <t>Pen Testing</t>
   </si>
 </sst>
 </file>
@@ -461,59 +482,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -524,41 +549,43 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -567,49 +594,47 @@
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -618,69 +643,99 @@
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.01</v>
-      </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>852147</v>
+      </c>
+      <c r="M5" s="1">
+        <v>67</v>
+      </c>
+      <c r="N5" s="1">
+        <v>67</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -728,69 +783,6 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/File1.xlsx
+++ b/File1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1322D521-5DA6-45B8-ABD7-7118D418F161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDB1622-B2A7-4C95-BC97-FB2355044E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
